--- a/example/test1.xlsx
+++ b/example/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projects\JSONGenerator\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F94F95-10E6-4DEA-8D2B-129B2A946273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001174B1-839F-4C81-9395-0319578C0ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17531" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11883" yWindow="125" windowWidth="18745" windowHeight="12685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ide</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,58 @@
   </si>
   <si>
     <t>testing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affadadw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fie1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasttTT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequencess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siddsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -544,7 +596,7 @@
     <col min="6" max="9" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -578,8 +630,11 @@
       <c r="L1" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -613,8 +668,11 @@
       <c r="L2">
         <v>12</v>
       </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -647,6 +705,47 @@
       </c>
       <c r="L3">
         <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3">
+        <v>133</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/example/test1.xlsx
+++ b/example/test1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projects\JSONGenerator\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001174B1-839F-4C81-9395-0319578C0ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C4A936-150F-41FA-8FA1-2FEED4B21831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11883" yWindow="125" windowWidth="18745" windowHeight="12685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3619" yWindow="2054" windowWidth="18745" windowHeight="14162" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testSheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>ide</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -752,4 +753,60 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E86084-205F-441B-89FA-3DB6B2E9435C}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/test1.xlsx
+++ b/example/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projects\JSONGenerator\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C4A936-150F-41FA-8FA1-2FEED4B21831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809ED7CA-1527-4DE4-A354-46EA5309DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3619" yWindow="2054" windowWidth="18745" windowHeight="14162" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7738" yWindow="1440" windowWidth="22064" windowHeight="14162" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet1" sheetId="1" r:id="rId1"/>
@@ -584,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -673,79 +673,79 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F5" s="3">
         <v>13.25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L3">
+      <c r="L5">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F6" s="3">
         <v>133</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -759,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E86084-205F-441B-89FA-3DB6B2E9435C}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
